--- a/Auto_v1.5/Model Summary.xlsx
+++ b/Auto_v1.5/Model Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="160">
   <si>
     <t>Auto Industry Analysis Report</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>../Image/Impulse Response/</t>
+  </si>
+  <si>
+    <t>11. Vector Autoregression</t>
+  </si>
+  <si>
+    <t>12. Grange Causality Test</t>
+  </si>
+  <si>
+    <t>13. Impulse Response Function</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1449,6 +1458,21 @@
     <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2654,9 +2678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I410"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
